--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -305,10 +305,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -305,10 +305,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -305,10 +305,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire codes Employment Status</t>
+    <t>Employment Status Code System</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for Questionnaire's Employment Status</t>
+    <t>A comprehensive code system for categorizing employment status in a questionnaire.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>2</t>
   </si>
   <si>
     <t>Level</t>
@@ -132,58 +132,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employed, freelance </t>
-  </si>
-  <si>
-    <t>EFT</t>
-  </si>
-  <si>
-    <t>Employed, full time</t>
-  </si>
-  <si>
-    <t>EPT</t>
-  </si>
-  <si>
-    <t>Employed, part time</t>
-  </si>
-  <si>
-    <t>EMPTJ</t>
-  </si>
-  <si>
-    <t>Employed, multiple part time jobs</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Self-employed</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Retired</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Other, please specify</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Temporarily unemployed</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave of absence </t>
   </si>
 </sst>
 </file>
@@ -486,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,90 +488,6 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-employment-status.xlsx
+++ b/vbai-fhir/CodeSystem-employment-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
